--- a/public/template/zh-tw/connection_template.xlsx
+++ b/public/template/zh-tw/connection_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fzzf/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02FCC396-857E-E241-9495-71486B7774AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE94B547-0DEF-4C42-B338-B4C758EE6AB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="33060" windowHeight="21580" xr2:uid="{18472E68-B775-9944-86EC-D9EC4E7A8A18}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="33120" windowHeight="21580" xr2:uid="{18472E68-B775-9944-86EC-D9EC4E7A8A18}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,20 +35,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>連接名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>資源組名稱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>連接狀態</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>連接類型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -73,23 +65,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>是否保存密碼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>密碼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>只讀帳號用戶名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只讀帳號密碼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>默認資料庫</t>
+    <t>環境</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -465,34 +445,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DC6230F-C2F4-BB44-A6AC-2B51BADF01D0}">
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="1"/>
-    <col min="4" max="4" width="14.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="1"/>
-    <col min="7" max="7" width="17.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="1"/>
-    <col min="10" max="10" width="15.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="19.83203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="19" style="1" customWidth="1"/>
-    <col min="13" max="13" width="24.1640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="20.1640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="20.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="18" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="14.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="1"/>
+    <col min="5" max="5" width="17.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="1"/>
+    <col min="8" max="9" width="19.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="21.1640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="24.33203125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -525,34 +500,19 @@
       </c>
       <c r="K1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P19:P1048576" xr:uid="{9D4902E3-C11A-4545-B9B0-3B1E2DE8A6A2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K1048576" xr:uid="{9D4902E3-C11A-4545-B9B0-3B1E2DE8A6A2}">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576 J1:J1048576" xr:uid="{7D0FE33E-FD11-744E-AFB1-EE0D94943804}">
-      <formula1>"true,false"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{9D39D2B6-4BBE-704D-9CD0-AAA8F00B21CC}">
+      <formula1>"OB_MYSQL,OB_ORACLE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{53322351-A682-1943-86F2-402340A24CC8}">
-      <formula1>"OB_MYSQL,OB_ORACLE,CLOUD_OB_MYSQL,CLOUD_OB_ORACLE,ODP_SHARDING_OB_MYSQL"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576" xr:uid="{272E7AB5-0F20-3043-8EE1-2C97C238830E}">
+      <formula1>"默認,開發,生產,測試"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/template/zh-tw/connection_template.xlsx
+++ b/public/template/zh-tw/connection_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fzzf/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE94B547-0DEF-4C42-B338-B4C758EE6AB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30749597-915B-6D4C-8B11-E1815AF64E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="33120" windowHeight="21580" xr2:uid="{18472E68-B775-9944-86EC-D9EC4E7A8A18}"/>
   </bookViews>
@@ -448,7 +448,7 @@
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -505,11 +505,11 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{9D39D2B6-4BBE-704D-9CD0-AAA8F00B21CC}">
+      <formula1>"OB_MYSQL,OB_ORACLE"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K1048576" xr:uid="{9D4902E3-C11A-4545-B9B0-3B1E2DE8A6A2}">
       <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{9D39D2B6-4BBE-704D-9CD0-AAA8F00B21CC}">
-      <formula1>"OB_MYSQL,OB_ORACLE"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576" xr:uid="{272E7AB5-0F20-3043-8EE1-2C97C238830E}">
       <formula1>"默認,開發,生產,測試"</formula1>
